--- a/Quotazioni_Fantacalcio_Stagione_2025_26.xlsx
+++ b/Quotazioni_Fantacalcio_Stagione_2025_26.xlsx
@@ -1684,160 +1684,160 @@
     <t>Taremi</t>
   </si>
   <si>
+    <t>Almqvist</t>
+  </si>
+  <si>
+    <t>Lind</t>
+  </si>
+  <si>
+    <t>Bayo V.</t>
+  </si>
+  <si>
+    <t>Karlsson</t>
+  </si>
+  <si>
+    <t>Cancellieri</t>
+  </si>
+  <si>
+    <t>Brenner</t>
+  </si>
+  <si>
+    <t>Rocha Livramento</t>
+  </si>
+  <si>
+    <t>Ekuban</t>
+  </si>
+  <si>
+    <t>Meister</t>
+  </si>
+  <si>
+    <t>Alvarez A.</t>
+  </si>
+  <si>
+    <t>Pavoletti</t>
+  </si>
+  <si>
+    <t>Azon</t>
+  </si>
+  <si>
+    <t>Gabrielloni</t>
+  </si>
+  <si>
+    <t>Bonazzoli</t>
+  </si>
+  <si>
+    <t>Ekhator</t>
+  </si>
+  <si>
+    <t>Milik</t>
+  </si>
+  <si>
+    <t>Benedyczak</t>
+  </si>
+  <si>
+    <t>Buffon L.</t>
+  </si>
+  <si>
+    <t>Moro L.</t>
+  </si>
+  <si>
+    <t>Skjellerup</t>
+  </si>
+  <si>
+    <t>Njie</t>
+  </si>
+  <si>
+    <t>Pizarro</t>
+  </si>
+  <si>
+    <t>Giovane</t>
+  </si>
+  <si>
+    <t>Calciatori Ceduti 2025 26</t>
+  </si>
+  <si>
+    <t>Christensen O.</t>
+  </si>
+  <si>
+    <t>Donnarumma An.</t>
+  </si>
+  <si>
+    <t>Tchatchoua</t>
+  </si>
+  <si>
+    <t>Leoni</t>
+  </si>
+  <si>
+    <t>Thiaw</t>
+  </si>
+  <si>
+    <t>Erlic</t>
+  </si>
+  <si>
+    <t>Azzi</t>
+  </si>
+  <si>
+    <t>Giannetti L.</t>
+  </si>
+  <si>
+    <t>Ravanelli</t>
+  </si>
+  <si>
+    <t>Hainaut</t>
+  </si>
+  <si>
+    <t>Kumbulla</t>
+  </si>
+  <si>
+    <t>Wieteska</t>
+  </si>
+  <si>
+    <t>Quagliata</t>
+  </si>
+  <si>
+    <t>Abdulhamid</t>
+  </si>
+  <si>
+    <t>Ndoye</t>
+  </si>
+  <si>
+    <t>Strefezza</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>Weah</t>
+  </si>
+  <si>
+    <t>Zanimacchia</t>
+  </si>
+  <si>
+    <t>El Azzouzi</t>
+  </si>
+  <si>
+    <t>Braunoder</t>
+  </si>
+  <si>
+    <t>Liberali</t>
+  </si>
+  <si>
+    <t>Cissè A.</t>
+  </si>
+  <si>
+    <t>Thauvin</t>
+  </si>
+  <si>
+    <t>Raspadori</t>
+  </si>
+  <si>
     <t>Okafor</t>
   </si>
   <si>
-    <t>Almqvist</t>
-  </si>
-  <si>
-    <t>Lind</t>
-  </si>
-  <si>
-    <t>Bayo V.</t>
-  </si>
-  <si>
-    <t>Karlsson</t>
-  </si>
-  <si>
-    <t>Cancellieri</t>
-  </si>
-  <si>
-    <t>Brenner</t>
-  </si>
-  <si>
-    <t>Rocha Livramento</t>
-  </si>
-  <si>
-    <t>Ekuban</t>
-  </si>
-  <si>
-    <t>Meister</t>
-  </si>
-  <si>
-    <t>Alvarez A.</t>
-  </si>
-  <si>
-    <t>Pavoletti</t>
-  </si>
-  <si>
-    <t>Azon</t>
-  </si>
-  <si>
-    <t>Gabrielloni</t>
-  </si>
-  <si>
-    <t>Bonazzoli</t>
-  </si>
-  <si>
-    <t>Ekhator</t>
-  </si>
-  <si>
-    <t>Milik</t>
-  </si>
-  <si>
-    <t>Benedyczak</t>
-  </si>
-  <si>
-    <t>Buffon L.</t>
+    <t>Nasti</t>
   </si>
   <si>
     <t>Bonfanti N.</t>
-  </si>
-  <si>
-    <t>Moro L.</t>
-  </si>
-  <si>
-    <t>Skjellerup</t>
-  </si>
-  <si>
-    <t>Njie</t>
-  </si>
-  <si>
-    <t>Pizarro</t>
-  </si>
-  <si>
-    <t>Giovane</t>
-  </si>
-  <si>
-    <t>Calciatori Ceduti 2025 26</t>
-  </si>
-  <si>
-    <t>Christensen O.</t>
-  </si>
-  <si>
-    <t>Donnarumma An.</t>
-  </si>
-  <si>
-    <t>Tchatchoua</t>
-  </si>
-  <si>
-    <t>Leoni</t>
-  </si>
-  <si>
-    <t>Thiaw</t>
-  </si>
-  <si>
-    <t>Erlic</t>
-  </si>
-  <si>
-    <t>Azzi</t>
-  </si>
-  <si>
-    <t>Giannetti L.</t>
-  </si>
-  <si>
-    <t>Ravanelli</t>
-  </si>
-  <si>
-    <t>Hainaut</t>
-  </si>
-  <si>
-    <t>Kumbulla</t>
-  </si>
-  <si>
-    <t>Wieteska</t>
-  </si>
-  <si>
-    <t>Quagliata</t>
-  </si>
-  <si>
-    <t>Abdulhamid</t>
-  </si>
-  <si>
-    <t>Ndoye</t>
-  </si>
-  <si>
-    <t>Strefezza</t>
-  </si>
-  <si>
-    <t>Man</t>
-  </si>
-  <si>
-    <t>Weah</t>
-  </si>
-  <si>
-    <t>Zanimacchia</t>
-  </si>
-  <si>
-    <t>El Azzouzi</t>
-  </si>
-  <si>
-    <t>Braunoder</t>
-  </si>
-  <si>
-    <t>Liberali</t>
-  </si>
-  <si>
-    <t>Cissè A.</t>
-  </si>
-  <si>
-    <t>Thauvin</t>
-  </si>
-  <si>
-    <t>Raspadori</t>
-  </si>
-  <si>
-    <t>Nasti</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +1904,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:M521"/>
+  <dimension ref="A1:M519"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4642,10 +4642,10 @@
         <v>0</v>
       </c>
       <c r="L67" s="0">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="M67" s="0">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68">
@@ -4929,10 +4929,10 @@
         <v>0</v>
       </c>
       <c r="L74" s="0">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M74" s="0">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75">
@@ -5093,10 +5093,10 @@
         <v>0</v>
       </c>
       <c r="L78" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M78" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79">
@@ -5134,10 +5134,10 @@
         <v>0</v>
       </c>
       <c r="L79" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M79" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80">
@@ -5298,10 +5298,10 @@
         <v>0</v>
       </c>
       <c r="L83" s="0">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M83" s="0">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84">
@@ -5462,10 +5462,10 @@
         <v>0</v>
       </c>
       <c r="L87" s="0">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M87" s="0">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
@@ -6077,10 +6077,10 @@
         <v>0</v>
       </c>
       <c r="L102" s="0">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M102" s="0">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
@@ -6528,10 +6528,10 @@
         <v>0</v>
       </c>
       <c r="L113" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M113" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114">
@@ -6569,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="L114" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M114" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115">
@@ -6651,10 +6651,10 @@
         <v>0</v>
       </c>
       <c r="L116" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M116" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117">
@@ -6692,10 +6692,10 @@
         <v>0</v>
       </c>
       <c r="L117" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M117" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
@@ -6856,10 +6856,10 @@
         <v>0</v>
       </c>
       <c r="L121" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M121" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122">
@@ -7307,10 +7307,10 @@
         <v>0</v>
       </c>
       <c r="L132" s="0">
+        <v>9</v>
+      </c>
+      <c r="M132" s="0">
         <v>12</v>
-      </c>
-      <c r="M132" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="133">
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="L141" s="0">
+        <v>10</v>
+      </c>
+      <c r="M141" s="0">
         <v>12</v>
-      </c>
-      <c r="M141" s="0">
-        <v>14</v>
       </c>
     </row>
     <row r="142">
@@ -7881,10 +7881,10 @@
         <v>0</v>
       </c>
       <c r="L146" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M146" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147">
@@ -8127,10 +8127,10 @@
         <v>0</v>
       </c>
       <c r="L152" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M152" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153">
@@ -8537,10 +8537,10 @@
         <v>0</v>
       </c>
       <c r="L162" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M162" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163">
@@ -9193,10 +9193,10 @@
         <v>0</v>
       </c>
       <c r="L178" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M178" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179">
@@ -9316,10 +9316,10 @@
         <v>0</v>
       </c>
       <c r="L181" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M181" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182">
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="L183" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M183" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184">
@@ -9644,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="L189" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M189" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190">
@@ -11202,10 +11202,10 @@
         <v>0</v>
       </c>
       <c r="L227" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M227" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228">
@@ -12309,10 +12309,10 @@
         <v>0</v>
       </c>
       <c r="L254" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M254" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="255">
@@ -12353,7 +12353,7 @@
         <v>147</v>
       </c>
       <c r="M255" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="256">
@@ -12391,10 +12391,10 @@
         <v>0</v>
       </c>
       <c r="L256" s="0">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M256" s="0">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="257">
@@ -12432,10 +12432,10 @@
         <v>0</v>
       </c>
       <c r="L257" s="0">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M257" s="0">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="258">
@@ -12476,7 +12476,7 @@
         <v>78</v>
       </c>
       <c r="M258" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="259">
@@ -12760,10 +12760,10 @@
         <v>0</v>
       </c>
       <c r="L265" s="0">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M265" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="266">
@@ -12842,10 +12842,10 @@
         <v>0</v>
       </c>
       <c r="L267" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M267" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="268">
@@ -12883,10 +12883,10 @@
         <v>0</v>
       </c>
       <c r="L268" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M268" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="269">
@@ -12924,10 +12924,10 @@
         <v>0</v>
       </c>
       <c r="L269" s="0">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M269" s="0">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="270">
@@ -13211,10 +13211,10 @@
         <v>0</v>
       </c>
       <c r="L276" s="0">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M276" s="0">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="277">
@@ -13498,10 +13498,10 @@
         <v>0</v>
       </c>
       <c r="L283" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M283" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="284">
@@ -13621,10 +13621,10 @@
         <v>0</v>
       </c>
       <c r="L286" s="0">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M286" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="287">
@@ -13703,10 +13703,10 @@
         <v>0</v>
       </c>
       <c r="L288" s="0">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M288" s="0">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="289">
@@ -13826,10 +13826,10 @@
         <v>0</v>
       </c>
       <c r="L291" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M291" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="292">
@@ -13867,10 +13867,10 @@
         <v>0</v>
       </c>
       <c r="L292" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M292" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="293">
@@ -13908,10 +13908,10 @@
         <v>0</v>
       </c>
       <c r="L293" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M293" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="294">
@@ -13949,10 +13949,10 @@
         <v>0</v>
       </c>
       <c r="L294" s="0">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M294" s="0">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="295">
@@ -13990,10 +13990,10 @@
         <v>0</v>
       </c>
       <c r="L295" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M295" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="296">
@@ -14195,10 +14195,10 @@
         <v>0</v>
       </c>
       <c r="L300" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M300" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="301">
@@ -14400,10 +14400,10 @@
         <v>0</v>
       </c>
       <c r="L305" s="0">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M305" s="0">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="306">
@@ -15220,10 +15220,10 @@
         <v>0</v>
       </c>
       <c r="L325" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M325" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="326">
@@ -15876,10 +15876,10 @@
         <v>0</v>
       </c>
       <c r="L341" s="0">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M341" s="0">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="342">
@@ -16204,10 +16204,10 @@
         <v>0</v>
       </c>
       <c r="L349" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M349" s="0">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="350">
@@ -16450,10 +16450,10 @@
         <v>0</v>
       </c>
       <c r="L355" s="0">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M355" s="0">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="356">
@@ -16860,10 +16860,10 @@
         <v>0</v>
       </c>
       <c r="L365" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M365" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="366">
@@ -18172,10 +18172,10 @@
         <v>0</v>
       </c>
       <c r="L397" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M397" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="398">
@@ -19361,10 +19361,10 @@
         <v>0</v>
       </c>
       <c r="L426" s="0">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M426" s="0">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="427">
@@ -19402,10 +19402,10 @@
         <v>0</v>
       </c>
       <c r="L427" s="0">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="M427" s="0">
-        <v>254</v>
+        <v>216</v>
       </c>
     </row>
     <row r="428">
@@ -19443,10 +19443,10 @@
         <v>0</v>
       </c>
       <c r="L428" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M428" s="0">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="429">
@@ -19566,10 +19566,10 @@
         <v>0</v>
       </c>
       <c r="L431" s="0">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M431" s="0">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="432">
@@ -19607,10 +19607,10 @@
         <v>0</v>
       </c>
       <c r="L432" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M432" s="0">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="433">
@@ -19689,10 +19689,10 @@
         <v>0</v>
       </c>
       <c r="L434" s="0">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M434" s="0">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="435">
@@ -19730,10 +19730,10 @@
         <v>0</v>
       </c>
       <c r="L435" s="0">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="M435" s="0">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="436">
@@ -19771,10 +19771,10 @@
         <v>0</v>
       </c>
       <c r="L436" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="M436" s="0">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="437">
@@ -19812,10 +19812,10 @@
         <v>0</v>
       </c>
       <c r="L437" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M437" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="438">
@@ -19853,10 +19853,10 @@
         <v>0</v>
       </c>
       <c r="L438" s="0">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="M438" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="439">
@@ -19894,10 +19894,10 @@
         <v>0</v>
       </c>
       <c r="L439" s="0">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M439" s="0">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="440">
@@ -19935,10 +19935,10 @@
         <v>0</v>
       </c>
       <c r="L440" s="0">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M440" s="0">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="441">
@@ -20017,10 +20017,10 @@
         <v>0</v>
       </c>
       <c r="L442" s="0">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="M442" s="0">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="443">
@@ -20058,10 +20058,10 @@
         <v>0</v>
       </c>
       <c r="L443" s="0">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M443" s="0">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="444">
@@ -20102,7 +20102,7 @@
         <v>84</v>
       </c>
       <c r="M444" s="0">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="445">
@@ -20140,10 +20140,10 @@
         <v>0</v>
       </c>
       <c r="L445" s="0">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M445" s="0">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="446">
@@ -20263,10 +20263,10 @@
         <v>0</v>
       </c>
       <c r="L448" s="0">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="M448" s="0">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="449">
@@ -20304,10 +20304,10 @@
         <v>0</v>
       </c>
       <c r="L449" s="0">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M449" s="0">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="450">
@@ -20386,10 +20386,10 @@
         <v>0</v>
       </c>
       <c r="L451" s="0">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="M451" s="0">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="452">
@@ -20427,10 +20427,10 @@
         <v>0</v>
       </c>
       <c r="L452" s="0">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M452" s="0">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="453">
@@ -20509,10 +20509,10 @@
         <v>0</v>
       </c>
       <c r="L454" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M454" s="0">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="455">
@@ -20550,10 +20550,10 @@
         <v>0</v>
       </c>
       <c r="L455" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M455" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="456">
@@ -20591,10 +20591,10 @@
         <v>0</v>
       </c>
       <c r="L456" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M456" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="457">
@@ -20632,10 +20632,10 @@
         <v>0</v>
       </c>
       <c r="L457" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M457" s="0">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="458">
@@ -20673,10 +20673,10 @@
         <v>0</v>
       </c>
       <c r="L458" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M458" s="0">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="459">
@@ -20714,10 +20714,10 @@
         <v>0</v>
       </c>
       <c r="L459" s="0">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M459" s="0">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="460">
@@ -20755,10 +20755,10 @@
         <v>0</v>
       </c>
       <c r="L460" s="0">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M460" s="0">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="461">
@@ -20881,7 +20881,7 @@
         <v>13</v>
       </c>
       <c r="M463" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="464">
@@ -20919,10 +20919,10 @@
         <v>0</v>
       </c>
       <c r="L464" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M464" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="465">
@@ -20960,10 +20960,10 @@
         <v>0</v>
       </c>
       <c r="L465" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M465" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="466">
@@ -21042,10 +21042,10 @@
         <v>0</v>
       </c>
       <c r="L467" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M467" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="468">
@@ -21083,10 +21083,10 @@
         <v>0</v>
       </c>
       <c r="L468" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M468" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="469">
@@ -21124,10 +21124,10 @@
         <v>0</v>
       </c>
       <c r="L469" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M469" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="470">
@@ -21329,10 +21329,10 @@
         <v>0</v>
       </c>
       <c r="L474" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M474" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="475">
@@ -21370,10 +21370,10 @@
         <v>0</v>
       </c>
       <c r="L475" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M475" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="476">
@@ -21452,10 +21452,10 @@
         <v>0</v>
       </c>
       <c r="L477" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M477" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="478">
@@ -21493,10 +21493,10 @@
         <v>0</v>
       </c>
       <c r="L478" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="M478" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="479">
@@ -21534,10 +21534,10 @@
         <v>0</v>
       </c>
       <c r="L479" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M479" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="480">
@@ -21595,7 +21595,7 @@
         <v>539</v>
       </c>
       <c r="E481" s="0" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F481" s="0">
         <v>7</v>
@@ -21616,10 +21616,10 @@
         <v>0</v>
       </c>
       <c r="L481" s="0">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="M481" s="0">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="482">
@@ -21739,10 +21739,10 @@
         <v>0</v>
       </c>
       <c r="L484" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M484" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="485">
@@ -21821,10 +21821,10 @@
         <v>0</v>
       </c>
       <c r="L486" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M486" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="487">
@@ -21903,10 +21903,10 @@
         <v>0</v>
       </c>
       <c r="L488" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M488" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="489">
@@ -22026,10 +22026,10 @@
         <v>0</v>
       </c>
       <c r="L491" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M491" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="492">
@@ -22108,10 +22108,10 @@
         <v>0</v>
       </c>
       <c r="L493" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M493" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="494">
@@ -22239,19 +22239,19 @@
     </row>
     <row r="497">
       <c r="A497" s="0">
-        <v>6227</v>
+        <v>6207</v>
       </c>
       <c r="B497" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C497" s="0" t="s">
-        <v>476</v>
+        <v>294</v>
       </c>
       <c r="D497" s="0" t="s">
         <v>555</v>
       </c>
       <c r="E497" s="0" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F497" s="0">
         <v>4</v>
@@ -22272,27 +22272,27 @@
         <v>0</v>
       </c>
       <c r="L497" s="0">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M497" s="0">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0">
-        <v>6207</v>
+        <v>7153</v>
       </c>
       <c r="B498" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C498" s="0" t="s">
-        <v>294</v>
+        <v>477</v>
       </c>
       <c r="D498" s="0" t="s">
         <v>556</v>
       </c>
       <c r="E498" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F498" s="0">
         <v>4</v>
@@ -22313,15 +22313,15 @@
         <v>0</v>
       </c>
       <c r="L498" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M498" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="0">
-        <v>7153</v>
+        <v>7161</v>
       </c>
       <c r="B499" s="0" t="s">
         <v>476</v>
@@ -22333,7 +22333,7 @@
         <v>557</v>
       </c>
       <c r="E499" s="0" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F499" s="0">
         <v>4</v>
@@ -22354,56 +22354,56 @@
         <v>0</v>
       </c>
       <c r="L499" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M499" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0">
-        <v>7161</v>
+        <v>6459</v>
       </c>
       <c r="B500" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C500" s="0" t="s">
-        <v>477</v>
+        <v>294</v>
       </c>
       <c r="D500" s="0" t="s">
         <v>558</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F500" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G500" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H500" s="0">
         <v>0</v>
       </c>
       <c r="I500" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J500" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K500" s="0">
         <v>0</v>
       </c>
       <c r="L500" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M500" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0">
-        <v>6459</v>
+        <v>5500</v>
       </c>
       <c r="B501" s="0" t="s">
         <v>476</v>
@@ -22415,7 +22415,7 @@
         <v>559</v>
       </c>
       <c r="E501" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F501" s="0">
         <v>3</v>
@@ -22436,27 +22436,27 @@
         <v>0</v>
       </c>
       <c r="L501" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M501" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0">
-        <v>5500</v>
+        <v>6213</v>
       </c>
       <c r="B502" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C502" s="0" t="s">
-        <v>294</v>
+        <v>476</v>
       </c>
       <c r="D502" s="0" t="s">
         <v>560</v>
       </c>
       <c r="E502" s="0" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F502" s="0">
         <v>3</v>
@@ -22477,27 +22477,27 @@
         <v>0</v>
       </c>
       <c r="L502" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M502" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="0">
-        <v>6213</v>
+        <v>6644</v>
       </c>
       <c r="B503" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C503" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D503" s="0" t="s">
         <v>561</v>
       </c>
       <c r="E503" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F503" s="0">
         <v>3</v>
@@ -22509,10 +22509,10 @@
         <v>0</v>
       </c>
       <c r="I503" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J503" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K503" s="0">
         <v>0</v>
@@ -22521,30 +22521,30 @@
         <v>8</v>
       </c>
       <c r="M503" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="0">
-        <v>6644</v>
+        <v>5506</v>
       </c>
       <c r="B504" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C504" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D504" s="0" t="s">
         <v>562</v>
       </c>
       <c r="E504" s="0" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F504" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G504" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H504" s="0">
         <v>0</v>
@@ -22559,27 +22559,27 @@
         <v>0</v>
       </c>
       <c r="L504" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M504" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="0">
-        <v>5506</v>
+        <v>6836</v>
       </c>
       <c r="B505" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C505" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D505" s="0" t="s">
         <v>563</v>
       </c>
       <c r="E505" s="0" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F505" s="0">
         <v>2</v>
@@ -22600,15 +22600,15 @@
         <v>0</v>
       </c>
       <c r="L505" s="0">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M505" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="0">
-        <v>6836</v>
+        <v>5845</v>
       </c>
       <c r="B506" s="0" t="s">
         <v>476</v>
@@ -22620,7 +22620,7 @@
         <v>564</v>
       </c>
       <c r="E506" s="0" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F506" s="0">
         <v>2</v>
@@ -22632,24 +22632,24 @@
         <v>0</v>
       </c>
       <c r="I506" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J506" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K506" s="0">
         <v>0</v>
       </c>
       <c r="L506" s="0">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M506" s="0">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0">
-        <v>5845</v>
+        <v>247</v>
       </c>
       <c r="B507" s="0" t="s">
         <v>476</v>
@@ -22661,13 +22661,13 @@
         <v>565</v>
       </c>
       <c r="E507" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F507" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G507" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H507" s="0">
         <v>0</v>
@@ -22682,7 +22682,7 @@
         <v>0</v>
       </c>
       <c r="L507" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M507" s="0">
         <v>3</v>
@@ -22690,7 +22690,7 @@
     </row>
     <row r="508">
       <c r="A508" s="0">
-        <v>247</v>
+        <v>7027</v>
       </c>
       <c r="B508" s="0" t="s">
         <v>476</v>
@@ -22702,7 +22702,7 @@
         <v>566</v>
       </c>
       <c r="E508" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F508" s="0">
         <v>1</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="L508" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M508" s="0">
         <v>3</v>
@@ -22731,7 +22731,7 @@
     </row>
     <row r="509">
       <c r="A509" s="0">
-        <v>7027</v>
+        <v>6657</v>
       </c>
       <c r="B509" s="0" t="s">
         <v>476</v>
@@ -22764,27 +22764,27 @@
         <v>0</v>
       </c>
       <c r="L509" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M509" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="0">
-        <v>6657</v>
+        <v>505</v>
       </c>
       <c r="B510" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C510" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D510" s="0" t="s">
         <v>568</v>
       </c>
       <c r="E510" s="0" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F510" s="0">
         <v>1</v>
@@ -22813,7 +22813,7 @@
     </row>
     <row r="511">
       <c r="A511" s="0">
-        <v>505</v>
+        <v>6822</v>
       </c>
       <c r="B511" s="0" t="s">
         <v>476</v>
@@ -22825,7 +22825,7 @@
         <v>569</v>
       </c>
       <c r="E511" s="0" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F511" s="0">
         <v>1</v>
@@ -22846,27 +22846,27 @@
         <v>0</v>
       </c>
       <c r="L511" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M511" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="0">
-        <v>6822</v>
+        <v>2012</v>
       </c>
       <c r="B512" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C512" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D512" s="0" t="s">
         <v>570</v>
       </c>
       <c r="E512" s="0" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F512" s="0">
         <v>1</v>
@@ -22887,7 +22887,7 @@
         <v>0</v>
       </c>
       <c r="L512" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M512" s="0">
         <v>3</v>
@@ -22895,19 +22895,19 @@
     </row>
     <row r="513">
       <c r="A513" s="0">
-        <v>2012</v>
+        <v>6667</v>
       </c>
       <c r="B513" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C513" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D513" s="0" t="s">
         <v>571</v>
       </c>
       <c r="E513" s="0" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F513" s="0">
         <v>1</v>
@@ -22928,15 +22928,15 @@
         <v>0</v>
       </c>
       <c r="L513" s="0">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M513" s="0">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="0">
-        <v>6667</v>
+        <v>7171</v>
       </c>
       <c r="B514" s="0" t="s">
         <v>476</v>
@@ -22948,7 +22948,7 @@
         <v>572</v>
       </c>
       <c r="E514" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F514" s="0">
         <v>1</v>
@@ -22969,27 +22969,27 @@
         <v>0</v>
       </c>
       <c r="L514" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M514" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="0">
-        <v>7171</v>
+        <v>7158</v>
       </c>
       <c r="B515" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C515" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D515" s="0" t="s">
         <v>573</v>
       </c>
       <c r="E515" s="0" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F515" s="0">
         <v>1</v>
@@ -23018,7 +23018,7 @@
     </row>
     <row r="516">
       <c r="A516" s="0">
-        <v>7152</v>
+        <v>7159</v>
       </c>
       <c r="B516" s="0" t="s">
         <v>476</v>
@@ -23030,7 +23030,7 @@
         <v>574</v>
       </c>
       <c r="E516" s="0" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F516" s="0">
         <v>1</v>
@@ -23051,27 +23051,27 @@
         <v>0</v>
       </c>
       <c r="L516" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M516" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0">
-        <v>7158</v>
+        <v>6827</v>
       </c>
       <c r="B517" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C517" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D517" s="0" t="s">
         <v>575</v>
       </c>
       <c r="E517" s="0" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F517" s="0">
         <v>1</v>
@@ -23100,7 +23100,7 @@
     </row>
     <row r="518">
       <c r="A518" s="0">
-        <v>7159</v>
+        <v>6635</v>
       </c>
       <c r="B518" s="0" t="s">
         <v>476</v>
@@ -23112,7 +23112,7 @@
         <v>576</v>
       </c>
       <c r="E518" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F518" s="0">
         <v>1</v>
@@ -23133,15 +23133,15 @@
         <v>0</v>
       </c>
       <c r="L518" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M518" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0">
-        <v>6827</v>
+        <v>7162</v>
       </c>
       <c r="B519" s="0" t="s">
         <v>476</v>
@@ -23153,7 +23153,7 @@
         <v>577</v>
       </c>
       <c r="E519" s="0" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F519" s="0">
         <v>1</v>
@@ -23174,91 +23174,9 @@
         <v>0</v>
       </c>
       <c r="L519" s="0">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M519" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" s="0">
-        <v>6635</v>
-      </c>
-      <c r="B520" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="C520" s="0" t="s">
-        <v>477</v>
-      </c>
-      <c r="D520" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="E520" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F520" s="0">
-        <v>1</v>
-      </c>
-      <c r="G520" s="0">
-        <v>1</v>
-      </c>
-      <c r="H520" s="0">
-        <v>0</v>
-      </c>
-      <c r="I520" s="0">
-        <v>1</v>
-      </c>
-      <c r="J520" s="0">
-        <v>1</v>
-      </c>
-      <c r="K520" s="0">
-        <v>0</v>
-      </c>
-      <c r="L520" s="0">
-        <v>3</v>
-      </c>
-      <c r="M520" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" s="0">
-        <v>7162</v>
-      </c>
-      <c r="B521" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="C521" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="D521" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="E521" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F521" s="0">
-        <v>1</v>
-      </c>
-      <c r="G521" s="0">
-        <v>1</v>
-      </c>
-      <c r="H521" s="0">
-        <v>0</v>
-      </c>
-      <c r="I521" s="0">
-        <v>1</v>
-      </c>
-      <c r="J521" s="0">
-        <v>1</v>
-      </c>
-      <c r="K521" s="0">
-        <v>0</v>
-      </c>
-      <c r="L521" s="0">
-        <v>12</v>
-      </c>
-      <c r="M521" s="0">
         <v>12</v>
       </c>
     </row>
@@ -26099,10 +26017,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="0">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="M6" s="0">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -26386,10 +26304,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M13" s="0">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -26550,10 +26468,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M17" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -26591,10 +26509,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M18" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -26755,10 +26673,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="0">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M22" s="0">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -26919,10 +26837,10 @@
         <v>0</v>
       </c>
       <c r="L26" s="0">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M26" s="0">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -27534,10 +27452,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="0">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M41" s="0">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -27985,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M52" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -28026,10 +27944,10 @@
         <v>0</v>
       </c>
       <c r="L53" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M53" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
@@ -28108,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="L55" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M55" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -28149,10 +28067,10 @@
         <v>0</v>
       </c>
       <c r="L56" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M56" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -28313,10 +28231,10 @@
         <v>0</v>
       </c>
       <c r="L60" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M60" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -28764,10 +28682,10 @@
         <v>0</v>
       </c>
       <c r="L71" s="0">
+        <v>9</v>
+      </c>
+      <c r="M71" s="0">
         <v>12</v>
-      </c>
-      <c r="M71" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="72">
@@ -29133,10 +29051,10 @@
         <v>0</v>
       </c>
       <c r="L80" s="0">
+        <v>10</v>
+      </c>
+      <c r="M80" s="0">
         <v>12</v>
-      </c>
-      <c r="M80" s="0">
-        <v>14</v>
       </c>
     </row>
     <row r="81">
@@ -29338,10 +29256,10 @@
         <v>0</v>
       </c>
       <c r="L85" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M85" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
@@ -29584,10 +29502,10 @@
         <v>0</v>
       </c>
       <c r="L91" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M91" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
@@ -29994,10 +29912,10 @@
         <v>0</v>
       </c>
       <c r="L101" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M101" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
@@ -30650,10 +30568,10 @@
         <v>0</v>
       </c>
       <c r="L117" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M117" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
@@ -30773,10 +30691,10 @@
         <v>0</v>
       </c>
       <c r="L120" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M120" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121">
@@ -30855,10 +30773,10 @@
         <v>0</v>
       </c>
       <c r="L122" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M122" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123">
@@ -31101,10 +31019,10 @@
         <v>0</v>
       </c>
       <c r="L128" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M128" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129">
@@ -32659,10 +32577,10 @@
         <v>0</v>
       </c>
       <c r="L166" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M166" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167">
@@ -33855,10 +33773,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M8" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
@@ -33899,7 +33817,7 @@
         <v>147</v>
       </c>
       <c r="M9" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
@@ -33937,10 +33855,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M10" s="0">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
@@ -33978,10 +33896,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M11" s="0">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
@@ -34022,7 +33940,7 @@
         <v>78</v>
       </c>
       <c r="M12" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -34306,10 +34224,10 @@
         <v>0</v>
       </c>
       <c r="L19" s="0">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M19" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -34388,10 +34306,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M21" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -34429,10 +34347,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M22" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
@@ -34470,10 +34388,10 @@
         <v>0</v>
       </c>
       <c r="L23" s="0">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M23" s="0">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
@@ -34757,10 +34675,10 @@
         <v>0</v>
       </c>
       <c r="L30" s="0">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M30" s="0">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -35044,10 +34962,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M37" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -35167,10 +35085,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="0">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M40" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
@@ -35249,10 +35167,10 @@
         <v>0</v>
       </c>
       <c r="L42" s="0">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M42" s="0">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
@@ -35372,10 +35290,10 @@
         <v>0</v>
       </c>
       <c r="L45" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M45" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -35413,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="L46" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M46" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47">
@@ -35454,10 +35372,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M47" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48">
@@ -35495,10 +35413,10 @@
         <v>0</v>
       </c>
       <c r="L48" s="0">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M48" s="0">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -35536,10 +35454,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M49" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
@@ -35741,10 +35659,10 @@
         <v>0</v>
       </c>
       <c r="L54" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M54" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -35946,10 +35864,10 @@
         <v>0</v>
       </c>
       <c r="L59" s="0">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M59" s="0">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
@@ -36766,10 +36684,10 @@
         <v>0</v>
       </c>
       <c r="L79" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M79" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
@@ -37422,10 +37340,10 @@
         <v>0</v>
       </c>
       <c r="L95" s="0">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M95" s="0">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96">
@@ -37750,10 +37668,10 @@
         <v>0</v>
       </c>
       <c r="L103" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M103" s="0">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
@@ -37996,10 +37914,10 @@
         <v>0</v>
       </c>
       <c r="L109" s="0">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M109" s="0">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110">
@@ -38406,10 +38324,10 @@
         <v>0</v>
       </c>
       <c r="L119" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M119" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
@@ -39718,10 +39636,10 @@
         <v>0</v>
       </c>
       <c r="L151" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M151" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152">
@@ -40636,7 +40554,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -40996,10 +40914,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="0">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M9" s="0">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10">
@@ -41037,10 +40955,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="M10" s="0">
-        <v>254</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11">
@@ -41078,10 +40996,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M11" s="0">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12">
@@ -41201,10 +41119,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M14" s="0">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
@@ -41242,10 +41160,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M15" s="0">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
@@ -41324,10 +41242,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="0">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M17" s="0">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
@@ -41365,10 +41283,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="0">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="M18" s="0">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19">
@@ -41406,10 +41324,10 @@
         <v>0</v>
       </c>
       <c r="L19" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="M19" s="0">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
@@ -41447,10 +41365,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M20" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21">
@@ -41488,10 +41406,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="0">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="M21" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
@@ -41529,10 +41447,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="0">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M22" s="0">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -41570,10 +41488,10 @@
         <v>0</v>
       </c>
       <c r="L23" s="0">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M23" s="0">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24">
@@ -41652,10 +41570,10 @@
         <v>0</v>
       </c>
       <c r="L25" s="0">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="M25" s="0">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
@@ -41693,10 +41611,10 @@
         <v>0</v>
       </c>
       <c r="L26" s="0">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M26" s="0">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
@@ -41737,7 +41655,7 @@
         <v>84</v>
       </c>
       <c r="M27" s="0">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
@@ -41775,10 +41693,10 @@
         <v>0</v>
       </c>
       <c r="L28" s="0">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M28" s="0">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
@@ -41898,10 +41816,10 @@
         <v>0</v>
       </c>
       <c r="L31" s="0">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="M31" s="0">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32">
@@ -41939,10 +41857,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="0">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M32" s="0">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
@@ -42021,10 +41939,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="0">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="M34" s="0">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35">
@@ -42062,10 +41980,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="0">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M35" s="0">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36">
@@ -42144,10 +42062,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M37" s="0">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38">
@@ -42185,10 +42103,10 @@
         <v>0</v>
       </c>
       <c r="L38" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M38" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -42226,10 +42144,10 @@
         <v>0</v>
       </c>
       <c r="L39" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M39" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40">
@@ -42267,10 +42185,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M40" s="0">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
@@ -42308,10 +42226,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M41" s="0">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
@@ -42349,10 +42267,10 @@
         <v>0</v>
       </c>
       <c r="L42" s="0">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M42" s="0">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
@@ -42390,10 +42308,10 @@
         <v>0</v>
       </c>
       <c r="L43" s="0">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M43" s="0">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
@@ -42516,7 +42434,7 @@
         <v>13</v>
       </c>
       <c r="M46" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -42554,10 +42472,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M47" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -42595,10 +42513,10 @@
         <v>0</v>
       </c>
       <c r="L48" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M48" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
@@ -42677,10 +42595,10 @@
         <v>0</v>
       </c>
       <c r="L50" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M50" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -42718,10 +42636,10 @@
         <v>0</v>
       </c>
       <c r="L51" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M51" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
@@ -42759,10 +42677,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M52" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -42964,10 +42882,10 @@
         <v>0</v>
       </c>
       <c r="L57" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M57" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -43005,10 +42923,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M58" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
@@ -43087,10 +43005,10 @@
         <v>0</v>
       </c>
       <c r="L60" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M60" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -43128,10 +43046,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="M61" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62">
@@ -43169,10 +43087,10 @@
         <v>0</v>
       </c>
       <c r="L62" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M62" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -43230,7 +43148,7 @@
         <v>539</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F64" s="0">
         <v>7</v>
@@ -43251,10 +43169,10 @@
         <v>0</v>
       </c>
       <c r="L64" s="0">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="M64" s="0">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
@@ -43374,10 +43292,10 @@
         <v>0</v>
       </c>
       <c r="L67" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M67" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
@@ -43456,10 +43374,10 @@
         <v>0</v>
       </c>
       <c r="L69" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M69" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70">
@@ -43538,10 +43456,10 @@
         <v>0</v>
       </c>
       <c r="L71" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M71" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
@@ -43661,10 +43579,10 @@
         <v>0</v>
       </c>
       <c r="L74" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M74" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -43743,10 +43661,10 @@
         <v>0</v>
       </c>
       <c r="L76" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M76" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -43874,19 +43792,19 @@
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>6227</v>
+        <v>6207</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>476</v>
+        <v>294</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>555</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F80" s="0">
         <v>4</v>
@@ -43907,27 +43825,27 @@
         <v>0</v>
       </c>
       <c r="L80" s="0">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M80" s="0">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>6207</v>
+        <v>7153</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>294</v>
+        <v>477</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>556</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F81" s="0">
         <v>4</v>
@@ -43948,15 +43866,15 @@
         <v>0</v>
       </c>
       <c r="L81" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M81" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>7153</v>
+        <v>7161</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>476</v>
@@ -43968,7 +43886,7 @@
         <v>557</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F82" s="0">
         <v>4</v>
@@ -43989,56 +43907,56 @@
         <v>0</v>
       </c>
       <c r="L82" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M82" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>7161</v>
+        <v>6459</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>477</v>
+        <v>294</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>558</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F83" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G83" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H83" s="0">
         <v>0</v>
       </c>
       <c r="I83" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J83" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K83" s="0">
         <v>0</v>
       </c>
       <c r="L83" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M83" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>6459</v>
+        <v>5500</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>476</v>
@@ -44050,7 +43968,7 @@
         <v>559</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F84" s="0">
         <v>3</v>
@@ -44071,27 +43989,27 @@
         <v>0</v>
       </c>
       <c r="L84" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M84" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>5500</v>
+        <v>6213</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>294</v>
+        <v>476</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>560</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F85" s="0">
         <v>3</v>
@@ -44112,27 +44030,27 @@
         <v>0</v>
       </c>
       <c r="L85" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M85" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>6213</v>
+        <v>6644</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>561</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F86" s="0">
         <v>3</v>
@@ -44144,10 +44062,10 @@
         <v>0</v>
       </c>
       <c r="I86" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J86" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K86" s="0">
         <v>0</v>
@@ -44156,30 +44074,30 @@
         <v>8</v>
       </c>
       <c r="M86" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>6644</v>
+        <v>5506</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>562</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F87" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H87" s="0">
         <v>0</v>
@@ -44194,27 +44112,27 @@
         <v>0</v>
       </c>
       <c r="L87" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M87" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>5506</v>
+        <v>6836</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>563</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F88" s="0">
         <v>2</v>
@@ -44235,15 +44153,15 @@
         <v>0</v>
       </c>
       <c r="L88" s="0">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M88" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>6836</v>
+        <v>5845</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>476</v>
@@ -44255,7 +44173,7 @@
         <v>564</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F89" s="0">
         <v>2</v>
@@ -44267,24 +44185,24 @@
         <v>0</v>
       </c>
       <c r="I89" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K89" s="0">
         <v>0</v>
       </c>
       <c r="L89" s="0">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M89" s="0">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>5845</v>
+        <v>247</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>476</v>
@@ -44296,13 +44214,13 @@
         <v>565</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F90" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" s="0">
         <v>0</v>
@@ -44317,7 +44235,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M90" s="0">
         <v>3</v>
@@ -44325,7 +44243,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>247</v>
+        <v>7027</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>476</v>
@@ -44337,7 +44255,7 @@
         <v>566</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F91" s="0">
         <v>1</v>
@@ -44358,7 +44276,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M91" s="0">
         <v>3</v>
@@ -44366,7 +44284,7 @@
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>7027</v>
+        <v>6657</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>476</v>
@@ -44399,27 +44317,27 @@
         <v>0</v>
       </c>
       <c r="L92" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M92" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>6657</v>
+        <v>505</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>568</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F93" s="0">
         <v>1</v>
@@ -44448,7 +44366,7 @@
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>505</v>
+        <v>6822</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>476</v>
@@ -44460,7 +44378,7 @@
         <v>569</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F94" s="0">
         <v>1</v>
@@ -44481,27 +44399,27 @@
         <v>0</v>
       </c>
       <c r="L94" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M94" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>6822</v>
+        <v>2012</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>570</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F95" s="0">
         <v>1</v>
@@ -44522,7 +44440,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M95" s="0">
         <v>3</v>
@@ -44530,19 +44448,19 @@
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>2012</v>
+        <v>6667</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>571</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F96" s="0">
         <v>1</v>
@@ -44563,15 +44481,15 @@
         <v>0</v>
       </c>
       <c r="L96" s="0">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M96" s="0">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>6667</v>
+        <v>7171</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>476</v>
@@ -44583,7 +44501,7 @@
         <v>572</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F97" s="0">
         <v>1</v>
@@ -44604,27 +44522,27 @@
         <v>0</v>
       </c>
       <c r="L97" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M97" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>7171</v>
+        <v>7158</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>573</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F98" s="0">
         <v>1</v>
@@ -44653,7 +44571,7 @@
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>7152</v>
+        <v>7159</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>476</v>
@@ -44665,7 +44583,7 @@
         <v>574</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F99" s="0">
         <v>1</v>
@@ -44686,27 +44604,27 @@
         <v>0</v>
       </c>
       <c r="L99" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M99" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>7158</v>
+        <v>6827</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>575</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F100" s="0">
         <v>1</v>
@@ -44735,7 +44653,7 @@
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>7159</v>
+        <v>6635</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>476</v>
@@ -44747,7 +44665,7 @@
         <v>576</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F101" s="0">
         <v>1</v>
@@ -44768,15 +44686,15 @@
         <v>0</v>
       </c>
       <c r="L101" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M101" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>6827</v>
+        <v>7162</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>476</v>
@@ -44788,7 +44706,7 @@
         <v>577</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F102" s="0">
         <v>1</v>
@@ -44809,91 +44727,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="0">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M102" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="0">
-        <v>6635</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>477</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="E103" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F103" s="0">
-        <v>1</v>
-      </c>
-      <c r="G103" s="0">
-        <v>1</v>
-      </c>
-      <c r="H103" s="0">
-        <v>0</v>
-      </c>
-      <c r="I103" s="0">
-        <v>1</v>
-      </c>
-      <c r="J103" s="0">
-        <v>1</v>
-      </c>
-      <c r="K103" s="0">
-        <v>0</v>
-      </c>
-      <c r="L103" s="0">
-        <v>3</v>
-      </c>
-      <c r="M103" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="0">
-        <v>7162</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F104" s="0">
-        <v>1</v>
-      </c>
-      <c r="G104" s="0">
-        <v>1</v>
-      </c>
-      <c r="H104" s="0">
-        <v>0</v>
-      </c>
-      <c r="I104" s="0">
-        <v>1</v>
-      </c>
-      <c r="J104" s="0">
-        <v>1</v>
-      </c>
-      <c r="K104" s="0">
-        <v>0</v>
-      </c>
-      <c r="L104" s="0">
-        <v>12</v>
-      </c>
-      <c r="M104" s="0">
         <v>12</v>
       </c>
     </row>
@@ -44907,7 +44743,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -44930,7 +44766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -44997,7 +44833,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>29</v>
@@ -45038,7 +44874,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>37</v>
@@ -45079,7 +44915,7 @@
         <v>107</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>53</v>
@@ -45120,7 +44956,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>43</v>
@@ -45161,7 +44997,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>21</v>
@@ -45202,7 +45038,7 @@
         <v>103</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>33</v>
@@ -45243,7 +45079,7 @@
         <v>114</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>51</v>
@@ -45284,7 +45120,7 @@
         <v>103</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>49</v>
@@ -45325,7 +45161,7 @@
         <v>103</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>51</v>
@@ -45366,7 +45202,7 @@
         <v>107</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>43</v>
@@ -45407,7 +45243,7 @@
         <v>103</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>25</v>
@@ -45448,7 +45284,7 @@
         <v>103</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>41</v>
@@ -45489,7 +45325,7 @@
         <v>114</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>51</v>
@@ -45530,7 +45366,7 @@
         <v>107</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>25</v>
@@ -45571,7 +45407,7 @@
         <v>313</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>33</v>
@@ -45612,7 +45448,7 @@
         <v>313</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>35</v>
@@ -45636,10 +45472,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M18" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -45653,7 +45489,7 @@
         <v>294</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>43</v>
@@ -45694,7 +45530,7 @@
         <v>334</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>19</v>
@@ -45735,7 +45571,7 @@
         <v>313</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>51</v>
@@ -45776,7 +45612,7 @@
         <v>302</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>33</v>
@@ -45817,7 +45653,7 @@
         <v>302</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>35</v>
@@ -45858,7 +45694,7 @@
         <v>330</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>21</v>
@@ -45899,7 +45735,7 @@
         <v>330</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>53</v>
@@ -45940,7 +45776,7 @@
         <v>476</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>49</v>
@@ -45981,7 +45817,7 @@
         <v>476</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>23</v>
@@ -46013,42 +45849,124 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>7134</v>
+        <v>6227</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>476</v>
       </c>
       <c r="C28" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="0">
+        <v>4</v>
+      </c>
+      <c r="G28" s="0">
+        <v>4</v>
+      </c>
+      <c r="H28" s="0">
+        <v>0</v>
+      </c>
+      <c r="I28" s="0">
+        <v>4</v>
+      </c>
+      <c r="J28" s="0">
+        <v>4</v>
+      </c>
+      <c r="K28" s="0">
+        <v>0</v>
+      </c>
+      <c r="L28" s="0">
+        <v>5</v>
+      </c>
+      <c r="M28" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>7134</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D29" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="0">
+        <v>1</v>
+      </c>
+      <c r="G29" s="0">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0">
+        <v>0</v>
+      </c>
+      <c r="I29" s="0">
+        <v>1</v>
+      </c>
+      <c r="J29" s="0">
+        <v>1</v>
+      </c>
+      <c r="K29" s="0">
+        <v>0</v>
+      </c>
+      <c r="L29" s="0">
+        <v>3</v>
+      </c>
+      <c r="M29" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>7152</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>606</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="0">
-        <v>1</v>
-      </c>
-      <c r="G28" s="0">
-        <v>1</v>
-      </c>
-      <c r="H28" s="0">
-        <v>0</v>
-      </c>
-      <c r="I28" s="0">
-        <v>1</v>
-      </c>
-      <c r="J28" s="0">
-        <v>1</v>
-      </c>
-      <c r="K28" s="0">
-        <v>0</v>
-      </c>
-      <c r="L28" s="0">
-        <v>3</v>
-      </c>
-      <c r="M28" s="0">
+      <c r="E30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="0">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0">
+        <v>1</v>
+      </c>
+      <c r="H30" s="0">
+        <v>0</v>
+      </c>
+      <c r="I30" s="0">
+        <v>1</v>
+      </c>
+      <c r="J30" s="0">
+        <v>1</v>
+      </c>
+      <c r="K30" s="0">
+        <v>0</v>
+      </c>
+      <c r="L30" s="0">
+        <v>2</v>
+      </c>
+      <c r="M30" s="0">
         <v>2</v>
       </c>
     </row>
